--- a/2025年3月/3月汇总表_2025年3月_processed.xlsx
+++ b/2025年3月/3月汇总表_2025年3月_processed.xlsx
@@ -459,14 +459,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="13.2" customWidth="1" min="5" max="5"/>
+    <col width="13.2" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="22.8" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
@@ -547,14 +547,30 @@
           <t>3月1日</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>13956</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>-2722.26</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>-61571.44</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>12445.02267473118</v>
+      </c>
       <c r="J3" s="4" t="inlineStr"/>
       <c r="K3" s="4" t="inlineStr"/>
       <c r="L3" s="4" t="inlineStr"/>
@@ -565,14 +581,30 @@
           <t>3月2日</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>14661</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>-2780.65</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>-74689.39</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>-26.31732526881865</v>
+      </c>
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
@@ -583,14 +615,30 @@
           <t>3月3日</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>11066</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-2705.07</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-57709.91</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>13433.74267473118</v>
+      </c>
       <c r="J5" s="4" t="inlineStr"/>
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="inlineStr"/>
@@ -601,14 +649,30 @@
           <t>3月4日</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11306</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>-2710.15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>-58849.91</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12528.66267473118</v>
+      </c>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
@@ -619,14 +683,30 @@
           <t>3月5日</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>11355</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-2711.18</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-59082.66</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>12343.88267473118</v>
+      </c>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="inlineStr"/>
@@ -637,14 +717,30 @@
           <t>3月6日</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
+      <c r="B8" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>11361</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-2711.31</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-59111.16</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>12321.25267473118</v>
+      </c>
       <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="4" t="inlineStr"/>
@@ -655,14 +751,30 @@
           <t>3月7日</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
+      <c r="B9" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>12423</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>-2733.76</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-64155.66</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>8316.302674731178</v>
+      </c>
       <c r="J9" s="4" t="inlineStr"/>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="4" t="inlineStr"/>
@@ -673,14 +785,30 @@
           <t>3月8日</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="4" t="inlineStr"/>
+      <c r="B10" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>15461</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-2798</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-78586.16</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>-3617.6</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>-6758.037325268822</v>
+      </c>
       <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="4" t="inlineStr"/>
@@ -691,14 +819,30 @@
           <t>3月9日</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
+      <c r="B11" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>13803</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-2762.94</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-70710.66</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>3112.122674731177</v>
+      </c>
       <c r="J11" s="4" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="4" t="inlineStr"/>
@@ -709,14 +853,30 @@
           <t>3月10日</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr"/>
-      <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr"/>
-      <c r="G12" s="4" t="inlineStr"/>
-      <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="4" t="inlineStr"/>
+      <c r="B12" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>11011</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-2703.91</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>-57448.66</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>-20573</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>-6931.847325268822</v>
+      </c>
       <c r="J12" s="4" t="inlineStr"/>
       <c r="K12" s="4" t="inlineStr"/>
       <c r="L12" s="4" t="inlineStr"/>
@@ -727,14 +887,30 @@
           <t>3月11日</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr"/>
-      <c r="C13" s="4" t="inlineStr"/>
-      <c r="D13" s="4" t="inlineStr"/>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
-      <c r="G13" s="4" t="inlineStr"/>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr"/>
+      <c r="B13" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>11207</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>-2708.05</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-58379.66</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>-430</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>12472.01267473118</v>
+      </c>
       <c r="J13" s="4" t="inlineStr"/>
       <c r="K13" s="4" t="inlineStr"/>
       <c r="L13" s="4" t="inlineStr"/>
@@ -745,14 +921,30 @@
           <t>3月12日</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr"/>
-      <c r="C14" s="4" t="inlineStr"/>
-      <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr"/>
-      <c r="G14" s="4" t="inlineStr"/>
-      <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="4" t="inlineStr"/>
+      <c r="B14" s="4" t="n">
+        <v>64313.99</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>11101</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-2705.81</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-57876.16</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>13301.75267473118</v>
+      </c>
       <c r="J14" s="4" t="inlineStr"/>
       <c r="K14" s="4" t="inlineStr"/>
       <c r="L14" s="4" t="inlineStr"/>
@@ -764,7 +956,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>64313.99000000001</v>
+        <v>64313.99</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>10852</v>
@@ -785,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>14240.76267473119</v>
+        <v>14240.76267473118</v>
       </c>
       <c r="J15" s="4" t="inlineStr"/>
       <c r="K15" s="4" t="inlineStr"/>
@@ -797,14 +989,26 @@
           <t>3月14日</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
+      <c r="B16" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="inlineStr"/>
@@ -815,14 +1019,26 @@
           <t>3月15日</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr"/>
+      <c r="B17" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J17" s="4" t="inlineStr"/>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="inlineStr"/>
@@ -833,14 +1049,26 @@
           <t>3月16日</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
+      <c r="B18" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J18" s="4" t="inlineStr"/>
       <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="inlineStr"/>
@@ -851,14 +1079,26 @@
           <t>3月17日</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr"/>
+      <c r="B19" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J19" s="4" t="inlineStr"/>
       <c r="K19" s="4" t="inlineStr"/>
       <c r="L19" s="4" t="inlineStr"/>
@@ -869,14 +1109,26 @@
           <t>3月18日</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J20" s="4" t="inlineStr"/>
       <c r="K20" s="4" t="inlineStr"/>
       <c r="L20" s="4" t="inlineStr"/>
@@ -887,14 +1139,26 @@
           <t>3月19日</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J21" s="4" t="inlineStr"/>
       <c r="K21" s="4" t="inlineStr"/>
       <c r="L21" s="4" t="inlineStr"/>
@@ -905,14 +1169,26 @@
           <t>3月20日</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr"/>
+      <c r="B22" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C22" s="4" t="inlineStr"/>
-      <c r="D22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="4" t="inlineStr"/>
-      <c r="G22" s="4" t="inlineStr"/>
-      <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J22" s="4" t="inlineStr"/>
       <c r="K22" s="4" t="inlineStr"/>
       <c r="L22" s="4" t="inlineStr"/>
@@ -923,14 +1199,26 @@
           <t>3月21日</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr"/>
+      <c r="B23" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C23" s="4" t="inlineStr"/>
-      <c r="D23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr"/>
-      <c r="G23" s="4" t="inlineStr"/>
-      <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J23" s="4" t="inlineStr"/>
       <c r="K23" s="4" t="inlineStr"/>
       <c r="L23" s="4" t="inlineStr"/>
@@ -941,14 +1229,26 @@
           <t>3月22日</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr"/>
+      <c r="B24" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C24" s="4" t="inlineStr"/>
-      <c r="D24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr"/>
-      <c r="I24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J24" s="4" t="inlineStr"/>
       <c r="K24" s="4" t="inlineStr"/>
       <c r="L24" s="4" t="inlineStr"/>
@@ -959,14 +1259,26 @@
           <t>3月23日</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
+      <c r="B25" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="inlineStr"/>
@@ -977,14 +1289,26 @@
           <t>3月24日</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
+      <c r="B26" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="inlineStr"/>
@@ -995,14 +1319,26 @@
           <t>3月25日</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr"/>
+      <c r="B27" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J27" s="4" t="inlineStr"/>
       <c r="K27" s="4" t="inlineStr"/>
       <c r="L27" s="4" t="inlineStr"/>
@@ -1013,14 +1349,26 @@
           <t>3月26日</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr"/>
+      <c r="B28" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J28" s="4" t="inlineStr"/>
       <c r="K28" s="4" t="inlineStr"/>
       <c r="L28" s="4" t="inlineStr"/>
@@ -1031,14 +1379,26 @@
           <t>3月27日</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
+      <c r="B29" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J29" s="4" t="inlineStr"/>
       <c r="K29" s="4" t="inlineStr"/>
       <c r="L29" s="4" t="inlineStr"/>
@@ -1049,14 +1409,26 @@
           <t>3月28日</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr"/>
+      <c r="B30" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J30" s="4" t="inlineStr"/>
       <c r="K30" s="4" t="inlineStr"/>
       <c r="L30" s="4" t="inlineStr"/>
@@ -1067,14 +1439,26 @@
           <t>3月29日</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
+      <c r="B31" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J31" s="4" t="inlineStr"/>
       <c r="K31" s="4" t="inlineStr"/>
       <c r="L31" s="4" t="inlineStr"/>
@@ -1085,14 +1469,26 @@
           <t>3月30日</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
+      <c r="B32" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" s="4" t="inlineStr"/>
+      <c r="D32" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="4" t="inlineStr"/>
-      <c r="F32" s="4" t="inlineStr"/>
-      <c r="G32" s="4" t="inlineStr"/>
-      <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J32" s="4" t="inlineStr"/>
       <c r="K32" s="4" t="inlineStr"/>
       <c r="L32" s="4" t="inlineStr"/>
@@ -1103,14 +1499,26 @@
           <t>3月31日</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr"/>
+      <c r="B33" s="4" t="n">
+        <v>64313.99</v>
+      </c>
       <c r="C33" s="4" t="inlineStr"/>
-      <c r="D33" s="4" t="inlineStr"/>
+      <c r="D33" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="4" t="inlineStr"/>
-      <c r="G33" s="4" t="inlineStr"/>
-      <c r="H33" s="4" t="inlineStr"/>
-      <c r="I33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="n">
+        <v>-1531.267325268817</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>62782.72267473118</v>
+      </c>
       <c r="J33" s="4" t="inlineStr"/>
       <c r="K33" s="4" t="inlineStr"/>
       <c r="L33" s="4" t="inlineStr"/>
@@ -1122,28 +1530,28 @@
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>64313.99000000001</v>
+        <v>1993733.69</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>10852</v>
+        <v>159563</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>-2700.55</v>
+        <v>-35453.64</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>-56693.41</v>
+        <v>-814864.8400000001</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>-1531.267325268817</v>
+        <v>-47469.28708333334</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>0</v>
+        <v>-24620.6</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>14240.76267473119</v>
+        <v>1230888.322916667</v>
       </c>
       <c r="J34" s="4" t="inlineStr"/>
       <c r="K34" s="4" t="inlineStr"/>
@@ -1885,14 +2293,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="22.8" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
@@ -2190,7 +2598,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>853.9100000000001</v>
+        <v>853.91</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>110</v>
@@ -2211,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>235.3200000000001</v>
+        <v>235.32</v>
       </c>
       <c r="J15" s="4" t="inlineStr"/>
       <c r="K15" s="4" t="inlineStr"/>
@@ -2548,7 +2956,7 @@
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>853.9100000000001</v>
+        <v>853.91</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>110</v>
@@ -2569,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>235.3200000000001</v>
+        <v>235.32</v>
       </c>
       <c r="J34" s="4" t="inlineStr"/>
       <c r="K34" s="4" t="inlineStr"/>
